--- a/docs/build_instructions_wood_speakersOnly.xlsx
+++ b/docs/build_instructions_wood_speakersOnly.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/607157b747fa4bbf/Documents/projects/dqmusicbox_working/docs/build/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/607157b747fa4bbf/Documents/projects/dqmusicbox/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3320" documentId="13_ncr:1_{72E393A3-A0D9-4CED-B29E-31623CCF14F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EE23DAC2-0475-4233-8DA8-61D97CA11AC2}"/>
+  <xr:revisionPtr revIDLastSave="3376" documentId="13_ncr:1_{72E393A3-A0D9-4CED-B29E-31623CCF14F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8D621CAA-E66E-4506-8E51-D2A486476963}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
   <si>
     <t>KY-040 rotary encoders (knobs)</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Case</t>
   </si>
   <si>
-    <t>Speaker cloth</t>
-  </si>
-  <si>
     <t>Speakers</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
     <t>See instructions above</t>
   </si>
   <si>
-    <t>Also tested with a 2B, 3A+, 3B, 3B+, 4B. Do not use Pi Zero.</t>
-  </si>
-  <si>
     <t>Or buy Amazon 	B07TYQRXTK</t>
   </si>
   <si>
@@ -197,6 +191,32 @@
   </si>
   <si>
     <t>Or buy Amazon B01KC7WGQQ</t>
+  </si>
+  <si>
+    <t>Speaker cloth (brown, large piece)</t>
+  </si>
+  <si>
+    <t>Or buy Amazon B01HMBKNSS (black, large cloth)</t>
+  </si>
+  <si>
+    <t>Or buy Amazon B0718XQPGB. 
+Amazon B07C87FYLY *may* work, but you'll also need to buy M3 screws.</t>
+  </si>
+  <si>
+    <t>Or buy Amazon B07TD42S27 (Pi 4).
+Or buy a Pi 3B+ and the appropriate power supply (not the Pi 4 power supply below).</t>
+  </si>
+  <si>
+    <t>You can probably also buy these at a good hardware store for less</t>
+  </si>
+  <si>
+    <t>Official Raspberry Pi 4 Power Supply 5.1V 3A with USB C</t>
+  </si>
+  <si>
+    <t>Sticky back rubber feet (100 pieces)</t>
+  </si>
+  <si>
+    <t>Only needed for wood &lt; 6mm thick</t>
   </si>
 </sst>
 </file>
@@ -312,7 +332,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -352,6 +372,9 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -637,33 +660,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.21875" customWidth="1"/>
-    <col min="4" max="4" width="43.88671875" customWidth="1"/>
+    <col min="4" max="4" width="59.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>18</v>
-      </c>
       <c r="C1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -674,66 +697,68 @@
         <v>57.92</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5">
         <v>35</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5">
         <v>3.95</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5">
         <v>7.95</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="5">
         <v>3.95</v>
       </c>
-      <c r="D6" s="19"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>2</v>
@@ -742,12 +767,12 @@
         <v>10.99</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>2</v>
@@ -755,11 +780,13 @@
       <c r="C8" s="5">
         <v>5.74</v>
       </c>
-      <c r="D8" s="19"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>2</v>
@@ -767,11 +794,13 @@
       <c r="C9" s="5">
         <v>9.99</v>
       </c>
-      <c r="D9" s="19"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>2</v>
@@ -780,10 +809,10 @@
         <v>7.99</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>4</v>
       </c>
@@ -794,12 +823,12 @@
         <v>3.99</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>2</v>
@@ -808,10 +837,10 @@
         <v>5.9</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>3</v>
       </c>
@@ -822,10 +851,10 @@
         <v>6.99</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>0</v>
       </c>
@@ -836,12 +865,12 @@
         <v>7.99</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>2</v>
@@ -850,12 +879,12 @@
         <v>2.17</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="21">
@@ -863,7 +892,7 @@
         <v>170.52000000000004</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -875,10 +904,10 @@
     <hyperlink ref="A13" r:id="rId5" xr:uid="{640A7699-5A61-4CEA-AFD7-54AF2B7E0F21}"/>
     <hyperlink ref="A10" r:id="rId6" xr:uid="{A38EEB0C-B814-414E-A853-616A6A7E5946}"/>
     <hyperlink ref="A4" r:id="rId7" xr:uid="{8265DDE7-9E2C-411F-856E-54BEF348B8FE}"/>
-    <hyperlink ref="A5" r:id="rId8" xr:uid="{8AD1DFF8-4B9D-486E-AB83-2B81BE240B0A}"/>
+    <hyperlink ref="A5" r:id="rId8" display="Official Raspberry Pi Power Supply 5.1V 3A with USB C - 1.5 meter long" xr:uid="{8AD1DFF8-4B9D-486E-AB83-2B81BE240B0A}"/>
     <hyperlink ref="A7" r:id="rId9" xr:uid="{281DD509-15F1-49E6-8329-1EDD7365432A}"/>
     <hyperlink ref="A8" r:id="rId10" display="M2.5 screws" xr:uid="{DBBA34BE-8FFB-4888-BDEB-CA5C79614ADA}"/>
-    <hyperlink ref="A9" r:id="rId11" xr:uid="{7450AADB-05CF-408F-87B9-203AF5A96F2F}"/>
+    <hyperlink ref="A9" r:id="rId11" display="Speaker cloth (large piece)" xr:uid="{7450AADB-05CF-408F-87B9-203AF5A96F2F}"/>
     <hyperlink ref="A6" r:id="rId12" xr:uid="{DE22D019-ED30-4034-96EC-C2DCA889F772}"/>
     <hyperlink ref="A15" r:id="rId13" xr:uid="{3BF39923-8E19-4D3B-AC0C-392CBFCF7018}"/>
   </hyperlinks>
@@ -889,10 +918,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7067D8A-8BAD-4046-8F57-F153419A24B6}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -903,9 +932,9 @@
     <col min="7" max="7" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="8">
         <v>10</v>
@@ -916,7 +945,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -925,35 +954,35 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="12" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="C4" s="8">
         <v>10</v>
@@ -963,7 +992,7 @@
         <v>21.5</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4:E19" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E20" si="0">C4*D4</f>
         <v>215</v>
       </c>
       <c r="F4" s="5">
@@ -971,15 +1000,15 @@
         <v>21.5</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3">
         <v>10</v>
@@ -997,12 +1026,12 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3">
         <v>10</v>
@@ -1020,12 +1049,12 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3">
         <v>10</v>
@@ -1043,12 +1072,12 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4">
         <v>10</v>
@@ -1066,12 +1095,12 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -1084,17 +1113,17 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" ref="F9:F19" si="2">E9/$B$1</f>
+        <f t="shared" ref="F9:F20" si="2">E9/$B$1</f>
         <v>0.24300000000000002</v>
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -1112,12 +1141,12 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -1135,9 +1164,9 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>2</v>
@@ -1158,9 +1187,9 @@
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>2</v>
@@ -1181,9 +1210,9 @@
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>2</v>
@@ -1204,7 +1233,7 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>4</v>
       </c>
@@ -1227,9 +1256,9 @@
       </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>2</v>
@@ -1250,12 +1279,12 @@
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="4">
         <v>4</v>
@@ -1273,12 +1302,12 @@
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -1296,9 +1325,9 @@
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>2</v>
@@ -1319,20 +1348,45 @@
       </c>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="2"/>
+        <v>0.10900000000000001</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="14">
+        <f>SUM(F4:F20)</f>
+        <v>93.017999999999986</v>
+      </c>
+      <c r="G21" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="14">
-        <f>SUM(F4:F19)</f>
-        <v>92.908999999999992</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1352,8 +1406,9 @@
     <hyperlink ref="A17" r:id="rId13" display="KY-040 rotary encoders (knobs)" xr:uid="{EA3723F7-6035-4B94-BCB2-B80EF150FC00}"/>
     <hyperlink ref="A18" r:id="rId14" display="KY-016 indicator LED" xr:uid="{71B11199-FCCF-440B-BB58-2D72493DF01B}"/>
     <hyperlink ref="A8" r:id="rId15" xr:uid="{466A8C25-DC01-41E4-BD5B-477FA3AD36BC}"/>
+    <hyperlink ref="A20" r:id="rId16" display="Sticky back rubber feet" xr:uid="{1A9B08A1-D8D2-4ADC-98D2-EBAFECA922B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>